--- a/beer/beer.xlsx
+++ b/beer/beer.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Debug\workspace\hbuilder\tmpbeer\beer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC79758-F90B-4593-A1CB-D277ED733899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAAFA56-A1DC-45D7-B669-77B0D4708986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C1699A6-219B-4661-8BFC-3C2C9514D096}"/>
+    <workbookView minimized="1" xWindow="2800" yWindow="2460" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{1C1699A6-219B-4661-8BFC-3C2C9514D096}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>产地</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,6 +319,18 @@
   </si>
   <si>
     <t>网站排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bud Light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhidao.baidu.com/question/270559629.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%99%BE%E5%A8%81/9727110?fr=aladdin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,171 +744,171 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0F65CF-BCFC-421D-88E3-CA32F507BA38}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
     <col min="8" max="8" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>22</v>
       </c>
@@ -904,13 +917,13 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C34" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>24</v>
       </c>
@@ -920,21 +933,21 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C36" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C37" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>28</v>
       </c>
@@ -943,13 +956,13 @@
       </c>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>31</v>
       </c>
@@ -966,17 +979,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C41" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C42" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>37</v>
       </c>
@@ -984,32 +997,32 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C44" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C45" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C46" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C47" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C48" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>49</v>
       </c>
@@ -1017,7 +1030,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>46</v>
       </c>
@@ -1029,7 +1042,7 @@
       </c>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C51" s="4" t="s">
         <v>51</v>
       </c>
@@ -1043,12 +1056,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C52" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>58</v>
       </c>
@@ -1068,22 +1081,22 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>72</v>
       </c>
@@ -1112,4 +1125,42 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId18"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EBD027-01C1-49BD-A63E-D74059777E3F}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="60.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F4AE0D13-BB6E-4C7C-ACCC-BF86D7EAF552}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{AC05DB49-C4D0-43AC-9E50-303C45F87A85}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/beer/beer.xlsx
+++ b/beer/beer.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Debug\workspace\hbuilder\tmpbeer\beer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cache\HBuilderWork\tmp\beer\beer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAAFA56-A1DC-45D7-B669-77B0D4708986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD7DD0B-58B3-4BC9-9030-D75B652E43B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2800" yWindow="2460" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{1C1699A6-219B-4661-8BFC-3C2C9514D096}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C1699A6-219B-4661-8BFC-3C2C9514D096}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>产地</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,6 +332,51 @@
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E7%99%BE%E5%A8%81/9727110?fr=aladdin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.360doc.com/content/15/0514/17/535749_470480273.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.360doc.com/content/18/1217/18/55773589_802473249.shtml</t>
+  </si>
+  <si>
+    <t>分类：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://dev.bjcp.org/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.homebrew8.com/thread-6811-1-1.html</t>
+  </si>
+  <si>
+    <t>啤酒种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sohu.com/a/217391605_100089210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然发酵啤酒</t>
+  </si>
+  <si>
+    <t>https://www.jiemian.com/article/260759_xianguo.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国酒厂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -338,7 +384,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,6 +431,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -411,7 +465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -425,6 +479,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -742,173 +799,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0F65CF-BCFC-421D-88E3-CA32F507BA38}">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
     <col min="8" max="8" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>22</v>
       </c>
@@ -917,13 +974,13 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>24</v>
       </c>
@@ -933,21 +990,21 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C36" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C37" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>28</v>
       </c>
@@ -956,13 +1013,13 @@
       </c>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>31</v>
       </c>
@@ -979,17 +1036,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C41" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C42" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>37</v>
       </c>
@@ -997,32 +1054,32 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C45" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C46" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C47" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C48" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
         <v>49</v>
       </c>
@@ -1030,7 +1087,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>46</v>
       </c>
@@ -1042,7 +1099,7 @@
       </c>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C51" s="4" t="s">
         <v>51</v>
       </c>
@@ -1056,12 +1113,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C52" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>58</v>
       </c>
@@ -1081,24 +1138,64 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1121,9 +1218,13 @@
     <hyperlink ref="A56" r:id="rId15" xr:uid="{E67D607D-1089-46EE-BFDF-F02955C1C3EF}"/>
     <hyperlink ref="A61" r:id="rId16" xr:uid="{865AFB2A-AE07-4875-B091-C549E7F0F8D4}"/>
     <hyperlink ref="A64" r:id="rId17" xr:uid="{FA0DC0C0-5936-48E6-8E9A-896627C8F618}"/>
+    <hyperlink ref="A66" r:id="rId18" xr:uid="{6B162490-8DB4-41D7-89C7-F13845CD13D8}"/>
+    <hyperlink ref="A69" r:id="rId19" xr:uid="{AB9C01CE-780B-4A23-962A-213E62CFBE08}"/>
+    <hyperlink ref="A68" r:id="rId20" xr:uid="{325CA6DA-9FF2-4DCF-9DD7-0FC5224AAEBD}"/>
+    <hyperlink ref="A72" r:id="rId21" xr:uid="{FF076285-A837-4959-94E5-F728182FD0A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -1131,26 +1232,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EBD027-01C1-49BD-A63E-D74059777E3F}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="60.1640625" customWidth="1"/>
+    <col min="2" max="2" width="60.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>76</v>
       </c>
@@ -1163,4 +1264,44 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE85B4B-3345-403A-9581-F665D5C02106}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/beer/beer.xlsx
+++ b/beer/beer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cache\HBuilderWork\tmp\beer\beer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD7DD0B-58B3-4BC9-9030-D75B652E43B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B6ADC9-18E7-47D7-B9AA-185310C6A80B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C1699A6-219B-4661-8BFC-3C2C9514D096}"/>
+    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="8964" xr2:uid="{1C1699A6-219B-4661-8BFC-3C2C9514D096}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>产地</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -377,6 +377,14 @@
   </si>
   <si>
     <t>美国酒厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博客：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_767acd8701014k4h.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -799,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0F65CF-BCFC-421D-88E3-CA32F507BA38}">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1196,6 +1204,16 @@
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1222,9 +1240,10 @@
     <hyperlink ref="A69" r:id="rId19" xr:uid="{AB9C01CE-780B-4A23-962A-213E62CFBE08}"/>
     <hyperlink ref="A68" r:id="rId20" xr:uid="{325CA6DA-9FF2-4DCF-9DD7-0FC5224AAEBD}"/>
     <hyperlink ref="A72" r:id="rId21" xr:uid="{FF076285-A837-4959-94E5-F728182FD0A9}"/>
+    <hyperlink ref="A75" r:id="rId22" xr:uid="{ACD5E81A-7C80-467E-9B3D-9B2326167746}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId23"/>
 </worksheet>
 </file>
 
